--- a/Dataset/Daftar Slang Nama Univ.xlsx
+++ b/Dataset/Daftar Slang Nama Univ.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SG2PEPF000DE4D0\EXCELCNV\5a4cdc6c-7362-4b98-a1ca-277ba66db22e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87800d9176d9ab3b/Dokumen/GitHub/Sentiment-Analysis-of-KIP-Recipients-based-on-Tweets-from-X/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1B129E-198C-42EC-8A6C-4DB787A52D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5F1B129E-198C-42EC-8A6C-4DB787A52D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992F3BAD-3B32-42C5-9ABE-FB5D3139A607}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{0AA73F41-A42C-4274-9620-4DC22CD15B53}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0AA73F41-A42C-4274-9620-4DC22CD15B53}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
   <si>
     <t>Nama Universitas</t>
   </si>
@@ -482,6 +498,12 @@
   </si>
   <si>
     <t>its_fess</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -1026,9 +1048,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1066,7 +1088,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1172,7 +1194,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1314,7 +1336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1322,778 +1344,1360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256CA885-561B-41BF-9F86-2570D2235055}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>-7.7762384000000004</v>
+      </c>
+      <c r="D2">
+        <v>110.37600879999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>-7.7762384000000004</v>
+      </c>
+      <c r="D3">
+        <v>110.37600879999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>-7.7762384000000004</v>
+      </c>
+      <c r="D4">
+        <v>110.37600879999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>-6.3603156500000004</v>
+      </c>
+      <c r="D5">
+        <v>106.827185590632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>-6.3603156500000004</v>
+      </c>
+      <c r="D6">
+        <v>106.827185590632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>-6.3603156500000004</v>
+      </c>
+      <c r="D7">
+        <v>106.827185590632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3.5613217499999998</v>
+      </c>
+      <c r="D8">
+        <v>98.656803337491596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>-7.2662592500000001</v>
+      </c>
+      <c r="D9">
+        <v>112.78394821684201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>-7.2662592500000001</v>
+      </c>
+      <c r="D10">
+        <v>112.78394821684201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>-7.2662592500000001</v>
+      </c>
+      <c r="D11">
+        <v>112.78394821684201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>-5.1326185500000001</v>
+      </c>
+      <c r="D12">
+        <v>119.488577719142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>-0.91487334999999903</v>
+      </c>
+      <c r="D13">
+        <v>100.462709898974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>-0.91487334999999903</v>
+      </c>
+      <c r="D14">
+        <v>100.462709898974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>-6.8931979999999999</v>
+      </c>
+      <c r="D15">
+        <v>107.617133933098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>-6.8931979999999999</v>
+      </c>
+      <c r="D16">
+        <v>107.617133933098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>-6.8931979999999999</v>
+      </c>
+      <c r="D17">
+        <v>107.617133933098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>-7.0483697999999997</v>
+      </c>
+      <c r="D18">
+        <v>110.440107056068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>-7.0483697999999997</v>
+      </c>
+      <c r="D19">
+        <v>110.440107056068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>-7.0483697999999997</v>
+      </c>
+      <c r="D20">
+        <v>110.440107056068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>-7.0483697999999997</v>
+      </c>
+      <c r="D21">
+        <v>110.440107056068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>-7.0483697999999997</v>
+      </c>
+      <c r="D22">
+        <v>110.440107056068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>-3.22553149999999</v>
+      </c>
+      <c r="D23">
+        <v>104.645999053417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>-3.2963060999999998</v>
+      </c>
+      <c r="D24">
+        <v>114.586270971033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>5.5692572499999997</v>
+      </c>
+      <c r="D25">
+        <v>95.371226200144605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1.4571372</v>
+      </c>
+      <c r="D26">
+        <v>124.82796119107699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>-8.7947285999999991</v>
+      </c>
+      <c r="D27">
+        <v>115.17390369964799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>-10.1524953</v>
+      </c>
+      <c r="D28">
+        <v>123.66562546943899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>-0.46933304999999997</v>
+      </c>
+      <c r="D29">
+        <v>117.155262800386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>-8.5873241</v>
+      </c>
+      <c r="D30">
+        <v>116.09336519999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.51158075000000003</v>
+      </c>
+      <c r="D31">
+        <v>101.455781553002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.51158075000000003</v>
+      </c>
+      <c r="D32">
+        <v>101.455781553002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.46925030000000001</v>
+      </c>
+      <c r="D33">
+        <v>101.380604842192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D34">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D35">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D36">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D37">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D38">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D39">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>-7.9520178999999898</v>
+      </c>
+      <c r="D40">
+        <v>112.613881409846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>-1.6123472999999999</v>
+      </c>
+      <c r="D41">
+        <v>103.51869770220701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>-3.6559978000000002</v>
+      </c>
+      <c r="D42">
+        <v>128.18776260000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>-5.7960699999999997E-2</v>
+      </c>
+      <c r="D43">
+        <v>109.346653330423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>-7.4033787999999996</v>
+      </c>
+      <c r="D44">
+        <v>109.245904735512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>-7.4033787999999996</v>
+      </c>
+      <c r="D45">
+        <v>109.245904735512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>-2.2187632499999999</v>
+      </c>
+      <c r="D46">
+        <v>113.88983593240199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>71</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>-8.1640259999999998</v>
+      </c>
+      <c r="D47">
+        <v>113.7138866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>73</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>-5.3777549000000002</v>
+      </c>
+      <c r="D48">
+        <v>105.25239226740401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>-7.5594793999999998</v>
+      </c>
+      <c r="D49">
+        <v>110.856853464304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>-7.5594793999999998</v>
+      </c>
+      <c r="D50">
+        <v>110.856853464304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>-7.5594793999999998</v>
+      </c>
+      <c r="D51">
+        <v>110.856853464304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>-0.83624284999999998</v>
+      </c>
+      <c r="D52">
+        <v>119.894653544504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>81</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>-4.0080562000000004</v>
+      </c>
+      <c r="D53">
+        <v>122.52189419266701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>83</v>
       </c>
       <c r="B54" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>-3.7586670500000001</v>
+      </c>
+      <c r="D54">
+        <v>102.271393182251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>85</v>
       </c>
       <c r="B55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>-6.3406422500000001</v>
+      </c>
+      <c r="D55">
+        <v>106.759070913245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>-0.89739524999999998</v>
+      </c>
+      <c r="D56">
+        <v>100.34995813402701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>89</v>
       </c>
       <c r="B57" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>-7.9616312499999999</v>
+      </c>
+      <c r="D57">
+        <v>112.617783801961</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>91</v>
       </c>
       <c r="B58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>-6.1947845499999996</v>
+      </c>
+      <c r="D58">
+        <v>106.878189714022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>-7.7730131499999997</v>
+      </c>
+      <c r="D59">
+        <v>110.383763340711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D60">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D61">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D62">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D63">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>100</v>
       </c>
       <c r="B64" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>3.6090493000000001</v>
+      </c>
+      <c r="D64">
+        <v>98.717065565930596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>102</v>
       </c>
       <c r="B65" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>-7.0500731499999896</v>
+      </c>
+      <c r="D65">
+        <v>110.398577362955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>102</v>
       </c>
       <c r="B66" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>-7.0500731499999896</v>
+      </c>
+      <c r="D66">
+        <v>110.398577362955</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>102</v>
       </c>
       <c r="B67" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>-7.0500731499999896</v>
+      </c>
+      <c r="D67">
+        <v>110.398577362955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>106</v>
       </c>
       <c r="B68" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>-6.1904792999999998</v>
+      </c>
+      <c r="D68">
+        <v>106.12389254427499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>108</v>
       </c>
       <c r="B69" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>-7.1283206999999997</v>
+      </c>
+      <c r="D69">
+        <v>112.724128619547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>110</v>
       </c>
       <c r="B70" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0.76290109555500596</v>
+      </c>
+      <c r="D70">
+        <v>127.336235267012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>-0.83534704999999998</v>
+      </c>
+      <c r="D71">
+        <v>134.068890285637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>114</v>
       </c>
       <c r="B72" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>5.2323488500000002</v>
+      </c>
+      <c r="D72">
+        <v>96.984553239859594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>116</v>
       </c>
       <c r="B73" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0.55466680000000002</v>
+      </c>
+      <c r="D73">
+        <v>123.06266614811101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>118</v>
       </c>
       <c r="B74" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>-8.7052432999999994</v>
+      </c>
+      <c r="D74">
+        <v>115.21845991153801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>120</v>
       </c>
       <c r="B75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>-2.0706917176591402</v>
+      </c>
+      <c r="D75">
+        <v>106.07878125331401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>122</v>
       </c>
       <c r="B76" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>3.3040750499999998</v>
+      </c>
+      <c r="D76">
+        <v>117.64604355741599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>124</v>
       </c>
       <c r="B77" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>-8.53474735</v>
+      </c>
+      <c r="D77">
+        <v>140.414835361423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>126</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>0.95705324999999997</v>
+      </c>
+      <c r="D78">
+        <v>104.441892867029</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>128</v>
       </c>
       <c r="B79" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>5.1812334499999997</v>
+      </c>
+      <c r="D79">
+        <v>97.148665749999907</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>130</v>
       </c>
       <c r="B80" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1.45910845</v>
+      </c>
+      <c r="D80">
+        <v>124.82427196792401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>132</v>
       </c>
       <c r="B81" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>-4.0727152575911196</v>
+      </c>
+      <c r="D81">
+        <v>121.62477245333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>134</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>-7.4605762000000002</v>
+      </c>
+      <c r="D82">
+        <v>110.216876612078</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>136</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>-7.3489874999999998</v>
+      </c>
+      <c r="D83">
+        <v>108.2227707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>138</v>
       </c>
       <c r="B84" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>4.1444979106742803</v>
+      </c>
+      <c r="D84">
+        <v>96.203425595625404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>140</v>
       </c>
       <c r="B85" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>-7.333799</v>
+      </c>
+      <c r="D85">
+        <v>112.78889057329199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>140</v>
       </c>
       <c r="B86" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>-7.333799</v>
+      </c>
+      <c r="D86">
+        <v>112.78889057329199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>140</v>
       </c>
       <c r="B87" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>-7.333799</v>
+      </c>
+      <c r="D87">
+        <v>112.78889057329199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>144</v>
       </c>
       <c r="B88" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>-6.3158524500000004</v>
+      </c>
+      <c r="D88">
+        <v>106.794274965753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>144</v>
       </c>
       <c r="B89" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>-6.3158524500000004</v>
+      </c>
+      <c r="D89">
+        <v>106.794274965753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>144</v>
       </c>
       <c r="B90" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>-6.3158524500000004</v>
+      </c>
+      <c r="D90">
+        <v>106.794274965753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>146</v>
       </c>
       <c r="B91" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>-7.7620045539596596</v>
+      </c>
+      <c r="D91">
+        <v>110.409252683319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>146</v>
       </c>
       <c r="B92" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>-7.7620045539596596</v>
+      </c>
+      <c r="D92">
+        <v>110.409252683319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>146</v>
       </c>
       <c r="B93" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>-7.7620045539596596</v>
+      </c>
+      <c r="D93">
+        <v>110.409252683319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>148</v>
       </c>
       <c r="B94" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>-6.3229257499999996</v>
+      </c>
+      <c r="D94">
+        <v>107.306228651282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>150</v>
       </c>
       <c r="B95" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>-6.89044875</v>
+      </c>
+      <c r="D95">
+        <v>107.610313557946</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>152</v>
       </c>
       <c r="B96" t="s">
         <v>153</v>
+      </c>
+      <c r="C96">
+        <v>-7.28210351706129</v>
+      </c>
+      <c r="D96">
+        <v>112.794991570655</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Daftar Slang Nama Univ.xlsx
+++ b/Dataset/Daftar Slang Nama Univ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87800d9176d9ab3b/Dokumen/GitHub/Sentiment-Analysis-of-KIP-Recipients-based-on-Tweets-from-X/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5F1B129E-198C-42EC-8A6C-4DB787A52D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992F3BAD-3B32-42C5-9ABE-FB5D3139A607}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{5F1B129E-198C-42EC-8A6C-4DB787A52D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163D6D30-5390-4C68-A5C0-89E50F1C5FB4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0AA73F41-A42C-4274-9620-4DC22CD15B53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="222">
   <si>
     <t>Nama Universitas</t>
   </si>
@@ -44,6 +44,12 @@
     <t>Singkatan</t>
   </si>
   <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>Universitas Gadjah Mada</t>
   </si>
   <si>
@@ -296,7 +302,10 @@
     <t>Universitas Terbuka</t>
   </si>
   <si>
-    <t>ut</t>
+    <t>utfess</t>
+  </si>
+  <si>
+    <t>utmenfess</t>
   </si>
   <si>
     <t>Universitas Negeri Padang</t>
@@ -434,7 +443,7 @@
     <t>unsulbar</t>
   </si>
   <si>
-    <t>Universitas Sebmbilanbelas November</t>
+    <t>Universitas Sembilanbelas November</t>
   </si>
   <si>
     <t>usn</t>
@@ -500,17 +509,206 @@
     <t>its_fess</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
+    <t>ugmlibrary</t>
+  </si>
+  <si>
+    <t>ugmyogyakarta</t>
+  </si>
+  <si>
+    <t>uibaseng</t>
+  </si>
+  <si>
+    <t>ui_fess</t>
+  </si>
+  <si>
+    <t>univ_indonesia</t>
+  </si>
+  <si>
+    <t>Universitas Airlangga</t>
+  </si>
+  <si>
+    <t>unair_official</t>
+  </si>
+  <si>
+    <t>hasanuddin_univ</t>
+  </si>
+  <si>
+    <t>hasanuddinuniv</t>
+  </si>
+  <si>
+    <t>Universitas Andalas</t>
+  </si>
+  <si>
+    <t>unandofficial</t>
+  </si>
+  <si>
+    <t>official_unand</t>
+  </si>
+  <si>
+    <t>univ_andalas</t>
+  </si>
+  <si>
+    <t>un_and</t>
+  </si>
+  <si>
+    <t>officialulm</t>
+  </si>
+  <si>
+    <t>univ_syiahkuala</t>
+  </si>
+  <si>
+    <t>udayanauniv</t>
+  </si>
+  <si>
+    <t>undanaofficial</t>
+  </si>
+  <si>
+    <t>officialunram</t>
+  </si>
+  <si>
+    <t>univmataram</t>
+  </si>
+  <si>
+    <t>univ_riau</t>
+  </si>
+  <si>
+    <t>anak_ur</t>
+  </si>
+  <si>
+    <t>universitasriau</t>
+  </si>
+  <si>
+    <t>jambiuniversity</t>
+  </si>
+  <si>
+    <t>univ_jambi</t>
+  </si>
+  <si>
+    <t>unpattiofficial</t>
+  </si>
+  <si>
+    <t>untanpontianak</t>
+  </si>
+  <si>
+    <t>untanfess</t>
+  </si>
+  <si>
+    <t>unsoedfess1963</t>
+  </si>
+  <si>
+    <t>unsoedofficial</t>
+  </si>
+  <si>
+    <t>maret_sebelas</t>
+  </si>
+  <si>
+    <t>untadpalu</t>
+  </si>
+  <si>
+    <t>univ_tadulako</t>
+  </si>
+  <si>
+    <t>univtadulako</t>
+  </si>
+  <si>
+    <t>unhalu_kendari</t>
+  </si>
+  <si>
+    <t>univ_haluoleo</t>
+  </si>
+  <si>
+    <t>uhokendari</t>
+  </si>
+  <si>
+    <t>uho_official</t>
+  </si>
+  <si>
+    <t>univhaluole</t>
+  </si>
+  <si>
+    <t>unibofficial</t>
+  </si>
+  <si>
+    <t>univ_bengkulu</t>
+  </si>
+  <si>
+    <t>univterbuka</t>
+  </si>
+  <si>
+    <t>um_fess</t>
+  </si>
+  <si>
+    <t>um_1954</t>
+  </si>
+  <si>
+    <t>unjmenfess</t>
+  </si>
+  <si>
+    <t>unymfs</t>
+  </si>
+  <si>
+    <t>official_unesa</t>
+  </si>
+  <si>
+    <t>unesa_fess</t>
+  </si>
+  <si>
+    <t>unimedofficial</t>
+  </si>
+  <si>
+    <t>untirtafesss</t>
+  </si>
+  <si>
+    <t>utmofficial</t>
+  </si>
+  <si>
+    <t>univkhairun</t>
+  </si>
+  <si>
+    <t>univpapua</t>
+  </si>
+  <si>
+    <t>unimaln</t>
+  </si>
+  <si>
+    <t>undikshabali</t>
+  </si>
+  <si>
+    <t>ubbofficial_</t>
+  </si>
+  <si>
+    <t>ubt_official</t>
+  </si>
+  <si>
+    <t>ubt_tarakan</t>
+  </si>
+  <si>
+    <t>unmus_official</t>
+  </si>
+  <si>
+    <t>universitastid1</t>
+  </si>
+  <si>
+    <t>univ_siliwangi</t>
+  </si>
+  <si>
+    <t>infounsil</t>
+  </si>
+  <si>
+    <t>umaruniversitas</t>
+  </si>
+  <si>
+    <t>upnvjt_official</t>
+  </si>
+  <si>
+    <t>itbofficial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,8 +843,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +1030,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -987,8 +1197,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,9 +1260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1088,7 +1300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1194,7 +1406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1336,7 +1548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,19 +1556,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256CA885-561B-41BF-9F86-2570D2235055}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,18 +1578,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>-7.7762384000000004</v>
@@ -1384,12 +1598,12 @@
         <v>110.37600879999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>-7.7762384000000004</v>
@@ -1398,12 +1612,12 @@
         <v>110.37600879999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>-7.7762384000000004</v>
@@ -1412,12 +1626,12 @@
         <v>110.37600879999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>-6.3603156500000004</v>
@@ -1426,12 +1640,12 @@
         <v>106.827185590632</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>-6.3603156500000004</v>
@@ -1440,12 +1654,12 @@
         <v>106.827185590632</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>-6.3603156500000004</v>
@@ -1454,12 +1668,12 @@
         <v>106.827185590632</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>3.5613217499999998</v>
@@ -1468,12 +1682,12 @@
         <v>98.656803337491596</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>-7.2662592500000001</v>
@@ -1482,12 +1696,12 @@
         <v>112.78394821684201</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>-7.2662592500000001</v>
@@ -1496,12 +1710,12 @@
         <v>112.78394821684201</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>-7.2662592500000001</v>
@@ -1510,12 +1724,12 @@
         <v>112.78394821684201</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>-5.1326185500000001</v>
@@ -1524,12 +1738,12 @@
         <v>119.488577719142</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>-0.91487334999999903</v>
@@ -1538,12 +1752,12 @@
         <v>100.462709898974</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>-0.91487334999999903</v>
@@ -1552,12 +1766,12 @@
         <v>100.462709898974</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>-6.8931979999999999</v>
@@ -1566,12 +1780,12 @@
         <v>107.617133933098</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>-6.8931979999999999</v>
@@ -1580,12 +1794,12 @@
         <v>107.617133933098</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>-6.8931979999999999</v>
@@ -1594,12 +1808,12 @@
         <v>107.617133933098</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>-7.0483697999999997</v>
@@ -1608,12 +1822,12 @@
         <v>110.440107056068</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>-7.0483697999999997</v>
@@ -1622,12 +1836,12 @@
         <v>110.440107056068</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>-7.0483697999999997</v>
@@ -1636,12 +1850,12 @@
         <v>110.440107056068</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>-7.0483697999999997</v>
@@ -1650,12 +1864,12 @@
         <v>110.440107056068</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>-7.0483697999999997</v>
@@ -1664,12 +1878,12 @@
         <v>110.440107056068</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>-3.22553149999999</v>
@@ -1678,12 +1892,12 @@
         <v>104.645999053417</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>-3.2963060999999998</v>
@@ -1692,12 +1906,12 @@
         <v>114.586270971033</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>5.5692572499999997</v>
@@ -1706,12 +1920,12 @@
         <v>95.371226200144605</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>1.4571372</v>
@@ -1720,12 +1934,12 @@
         <v>124.82796119107699</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>-8.7947285999999991</v>
@@ -1734,12 +1948,12 @@
         <v>115.17390369964799</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>-10.1524953</v>
@@ -1748,12 +1962,12 @@
         <v>123.66562546943899</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>-0.46933304999999997</v>
@@ -1762,12 +1976,12 @@
         <v>117.155262800386</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>-8.5873241</v>
@@ -1776,12 +1990,12 @@
         <v>116.09336519999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>0.51158075000000003</v>
@@ -1790,12 +2004,12 @@
         <v>101.455781553002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>0.51158075000000003</v>
@@ -1804,12 +2018,12 @@
         <v>101.455781553002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>0.46925030000000001</v>
@@ -1818,12 +2032,12 @@
         <v>101.380604842192</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>-7.9520178999999898</v>
@@ -1832,12 +2046,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>-7.9520178999999898</v>
@@ -1846,12 +2060,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>-7.9520178999999898</v>
@@ -1860,12 +2074,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>-7.9520178999999898</v>
@@ -1874,12 +2088,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>-7.9520178999999898</v>
@@ -1888,12 +2102,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39">
         <v>-7.9520178999999898</v>
@@ -1902,12 +2116,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>-7.9520178999999898</v>
@@ -1916,12 +2130,12 @@
         <v>112.613881409846</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>-1.6123472999999999</v>
@@ -1930,12 +2144,12 @@
         <v>103.51869770220701</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>-3.6559978000000002</v>
@@ -1944,12 +2158,12 @@
         <v>128.18776260000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>-5.7960699999999997E-2</v>
@@ -1958,12 +2172,12 @@
         <v>109.346653330423</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>-7.4033787999999996</v>
@@ -1972,12 +2186,12 @@
         <v>109.245904735512</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>-7.4033787999999996</v>
@@ -1986,12 +2200,12 @@
         <v>109.245904735512</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>-2.2187632499999999</v>
@@ -2000,12 +2214,12 @@
         <v>113.88983593240199</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>-8.1640259999999998</v>
@@ -2014,12 +2228,12 @@
         <v>113.7138866</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <v>-5.3777549000000002</v>
@@ -2028,12 +2242,12 @@
         <v>105.25239226740401</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49">
         <v>-7.5594793999999998</v>
@@ -2042,12 +2256,12 @@
         <v>110.856853464304</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C50">
         <v>-7.5594793999999998</v>
@@ -2056,12 +2270,12 @@
         <v>110.856853464304</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <v>-7.5594793999999998</v>
@@ -2070,12 +2284,12 @@
         <v>110.856853464304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>79</v>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>-0.83624284999999998</v>
@@ -2084,12 +2298,12 @@
         <v>119.894653544504</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53">
         <v>-4.0080562000000004</v>
@@ -2098,12 +2312,12 @@
         <v>122.52189419266701</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>-3.7586670500000001</v>
@@ -2112,12 +2326,12 @@
         <v>102.271393182251</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55">
         <v>-6.3406422500000001</v>
@@ -2126,82 +2340,82 @@
         <v>106.759070913245</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56">
+        <v>-6.3406422500000001</v>
+      </c>
+      <c r="D56">
+        <v>106.759070913245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57">
         <v>-0.89739524999999998</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>100.34995813402701</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
         <v>-7.9616312499999999</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>112.617783801961</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59">
         <v>-6.1947845499999996</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>106.878189714022</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60">
         <v>-7.7730131499999997</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>110.383763340711</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60">
-        <v>-7.3015347500000001</v>
-      </c>
-      <c r="D60">
-        <v>112.66931875495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C61">
         <v>-7.3015347500000001</v>
@@ -2210,12 +2424,12 @@
         <v>112.66931875495</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>-7.3015347500000001</v>
@@ -2224,12 +2438,12 @@
         <v>112.66931875495</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C63">
         <v>-7.3015347500000001</v>
@@ -2238,40 +2452,40 @@
         <v>112.66931875495</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D64">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65">
         <v>3.6090493000000001</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>98.717065565930596</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65">
-        <v>-7.0500731499999896</v>
-      </c>
-      <c r="D65">
-        <v>110.398577362955</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>102</v>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C66">
         <v>-7.0500731499999896</v>
@@ -2280,12 +2494,12 @@
         <v>110.398577362955</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C67">
         <v>-7.0500731499999896</v>
@@ -2294,264 +2508,264 @@
         <v>110.398577362955</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C68">
+        <v>-7.0500731499999896</v>
+      </c>
+      <c r="D68">
+        <v>110.398577362955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69">
         <v>-6.1904792999999998</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>106.12389254427499</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70">
         <v>-7.1283206999999997</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>112.724128619547</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70">
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71">
         <v>0.76290109555500596</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>127.336235267012</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71">
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72">
         <v>-0.83534704999999998</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>134.068890285637</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72">
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73">
         <v>5.2323488500000002</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>96.984553239859594</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74">
         <v>0.55466680000000002</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>123.06266614811101</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74">
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75">
         <v>-8.7052432999999994</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>115.21845991153801</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76">
         <v>-2.0706917176591402</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>106.07878125331401</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76">
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77">
         <v>3.3040750499999998</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>117.64604355741599</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77">
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78">
         <v>-8.53474735</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>140.414835361423</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78">
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79">
         <v>0.95705324999999997</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>104.441892867029</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80">
         <v>5.1812334499999997</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>97.148665749999907</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81">
         <v>1.45910845</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>124.82427196792401</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82">
         <v>-4.0727152575911196</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>121.62477245333</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82">
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83">
         <v>-7.4605762000000002</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>110.216876612078</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84">
         <v>-7.3489874999999998</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>108.2227707</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84">
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85">
         <v>4.1444979106742803</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>96.203425595625404</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85">
-        <v>-7.333799</v>
-      </c>
-      <c r="D85">
-        <v>112.78889057329199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C86">
         <v>-7.333799</v>
@@ -2560,12 +2774,12 @@
         <v>112.78889057329199</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C87">
         <v>-7.333799</v>
@@ -2574,26 +2788,26 @@
         <v>112.78889057329199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88">
+        <v>-7.333799</v>
+      </c>
+      <c r="D88">
+        <v>112.78889057329199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" t="s">
         <v>144</v>
-      </c>
-      <c r="B88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88">
-        <v>-6.3158524500000004</v>
-      </c>
-      <c r="D88">
-        <v>106.794274965753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" t="s">
-        <v>142</v>
       </c>
       <c r="C89">
         <v>-6.3158524500000004</v>
@@ -2602,9 +2816,9 @@
         <v>106.794274965753</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
         <v>145</v>
@@ -2616,26 +2830,26 @@
         <v>106.794274965753</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C91">
-        <v>-7.7620045539596596</v>
+        <v>-6.3158524500000004</v>
       </c>
       <c r="D91">
-        <v>110.409252683319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+        <v>106.794274965753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C92">
         <v>-7.7620045539596596</v>
@@ -2644,12 +2858,12 @@
         <v>110.409252683319</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C93">
         <v>-7.7620045539596596</v>
@@ -2658,46 +2872,572 @@
         <v>110.409252683319</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C94">
+        <v>-7.7620045539596596</v>
+      </c>
+      <c r="D94">
+        <v>110.409252683319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95">
         <v>-6.3229257499999996</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>107.306228651282</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>150</v>
-      </c>
-      <c r="B95" t="s">
-        <v>151</v>
-      </c>
-      <c r="C95">
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96">
         <v>-6.89044875</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>107.610313557946</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>152</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97">
+        <v>-7.28210351706129</v>
+      </c>
+      <c r="D97">
+        <v>112.794991570655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15">
+      <c r="A103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15">
+      <c r="A106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
+      <c r="A107" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15">
+      <c r="A108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15">
+      <c r="A109" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15">
+      <c r="A110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15">
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15">
+      <c r="A113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15">
+      <c r="A114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15">
+      <c r="A115" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15">
+      <c r="A116" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15">
+      <c r="A117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15">
+      <c r="A118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>87</v>
+      </c>
+      <c r="B137" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>87</v>
+      </c>
+      <c r="B138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>92</v>
+      </c>
+      <c r="B140" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>98</v>
+      </c>
+      <c r="B144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>115</v>
+      </c>
+      <c r="B149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>121</v>
+      </c>
+      <c r="B151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>125</v>
+      </c>
+      <c r="B154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>139</v>
+      </c>
+      <c r="B158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>153</v>
       </c>
-      <c r="C96">
-        <v>-7.28210351706129</v>
-      </c>
-      <c r="D96">
-        <v>112.794991570655</v>
+      <c r="B161" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Daftar Slang Nama Univ.xlsx
+++ b/Dataset/Daftar Slang Nama Univ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87800d9176d9ab3b/Dokumen/GitHub/Sentiment-Analysis-of-KIP-Recipients-based-on-Tweets-from-X/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{5F1B129E-198C-42EC-8A6C-4DB787A52D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163D6D30-5390-4C68-A5C0-89E50F1C5FB4}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{5F1B129E-198C-42EC-8A6C-4DB787A52D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{393DFA54-AC63-4D61-AF0A-54D9234DCB4C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0AA73F41-A42C-4274-9620-4DC22CD15B53}"/>
   </bookViews>
@@ -1559,15 +1559,15 @@
   <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2935,6 +2935,12 @@
       <c r="B98" t="s">
         <v>157</v>
       </c>
+      <c r="C98">
+        <v>-7.7762384000000004</v>
+      </c>
+      <c r="D98">
+        <v>110.37600879999999</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
@@ -2943,6 +2949,12 @@
       <c r="B99" t="s">
         <v>158</v>
       </c>
+      <c r="C99">
+        <v>-7.7762384000000004</v>
+      </c>
+      <c r="D99">
+        <v>110.37600879999999</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
@@ -2951,6 +2963,12 @@
       <c r="B100" t="s">
         <v>159</v>
       </c>
+      <c r="C100">
+        <v>-6.3603156500000004</v>
+      </c>
+      <c r="D100">
+        <v>106.827185590632</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
@@ -2959,6 +2977,12 @@
       <c r="B101" t="s">
         <v>160</v>
       </c>
+      <c r="C101">
+        <v>-6.3603156500000004</v>
+      </c>
+      <c r="D101">
+        <v>106.827185590632</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" t="s">
@@ -2967,6 +2991,12 @@
       <c r="B102" t="s">
         <v>161</v>
       </c>
+      <c r="C102">
+        <v>-6.3603156500000004</v>
+      </c>
+      <c r="D102">
+        <v>106.827185590632</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="1" t="s">
@@ -2975,6 +3005,12 @@
       <c r="B103" t="s">
         <v>163</v>
       </c>
+      <c r="C103">
+        <v>-7.2662592500000001</v>
+      </c>
+      <c r="D103">
+        <v>112.78394821684201</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
@@ -2983,6 +3019,12 @@
       <c r="B104" t="s">
         <v>164</v>
       </c>
+      <c r="C104">
+        <v>-5.1326185500000001</v>
+      </c>
+      <c r="D104">
+        <v>119.488577719142</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
@@ -2991,6 +3033,12 @@
       <c r="B105" t="s">
         <v>165</v>
       </c>
+      <c r="C105">
+        <v>-5.1326185500000001</v>
+      </c>
+      <c r="D105">
+        <v>119.488577719142</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="1" t="s">
@@ -2999,6 +3047,12 @@
       <c r="B106" t="s">
         <v>167</v>
       </c>
+      <c r="C106">
+        <v>-0.91487334999999903</v>
+      </c>
+      <c r="D106">
+        <v>100.462709898974</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="1" t="s">
@@ -3007,6 +3061,12 @@
       <c r="B107" t="s">
         <v>168</v>
       </c>
+      <c r="C107">
+        <v>-0.91487334999999903</v>
+      </c>
+      <c r="D107">
+        <v>100.462709898974</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="1" t="s">
@@ -3015,6 +3075,12 @@
       <c r="B108" t="s">
         <v>169</v>
       </c>
+      <c r="C108">
+        <v>-0.91487334999999903</v>
+      </c>
+      <c r="D108">
+        <v>100.462709898974</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="1" t="s">
@@ -3023,6 +3089,12 @@
       <c r="B109" t="s">
         <v>170</v>
       </c>
+      <c r="C109">
+        <v>-0.91487334999999903</v>
+      </c>
+      <c r="D109">
+        <v>100.462709898974</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="1" t="s">
@@ -3031,6 +3103,12 @@
       <c r="B110" t="s">
         <v>171</v>
       </c>
+      <c r="C110">
+        <v>-3.2963060999999998</v>
+      </c>
+      <c r="D110">
+        <v>114.586270971033</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="1" t="s">
@@ -3039,6 +3117,12 @@
       <c r="B111" t="s">
         <v>172</v>
       </c>
+      <c r="C111">
+        <v>5.5692572499999997</v>
+      </c>
+      <c r="D111">
+        <v>95.371226200144605</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="1" t="s">
@@ -3047,397 +3131,697 @@
       <c r="B112" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15">
+      <c r="C112">
+        <v>-8.7947285999999991</v>
+      </c>
+      <c r="D112">
+        <v>115.17390369964799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15">
       <c r="A113" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B113" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="15">
+      <c r="C113">
+        <v>-10.1524953</v>
+      </c>
+      <c r="D113">
+        <v>123.66562546943899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15">
       <c r="A114" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B114" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15">
+      <c r="C114">
+        <v>-8.5873241</v>
+      </c>
+      <c r="D114">
+        <v>116.09336519999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15">
       <c r="A115" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B115" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15">
+      <c r="C115">
+        <v>-8.5873241</v>
+      </c>
+      <c r="D115">
+        <v>116.09336519999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15">
       <c r="A116" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B116" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="15">
+      <c r="C116">
+        <v>0.51158075000000003</v>
+      </c>
+      <c r="D116">
+        <v>101.455781553002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15">
       <c r="A117" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B117" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15">
+      <c r="C117">
+        <v>0.51158075000000003</v>
+      </c>
+      <c r="D117">
+        <v>101.455781553002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
       <c r="A118" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B118" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>0.51158075000000003</v>
+      </c>
+      <c r="D118">
+        <v>101.455781553002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>62</v>
       </c>
       <c r="B119" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>-1.6123472999999999</v>
+      </c>
+      <c r="D119">
+        <v>103.51869770220701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>-1.6123472999999999</v>
+      </c>
+      <c r="D120">
+        <v>103.51869770220701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>64</v>
       </c>
       <c r="B121" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>-3.6559978000000002</v>
+      </c>
+      <c r="D121">
+        <v>128.18776260000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>66</v>
       </c>
       <c r="B122" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>-5.7960699999999997E-2</v>
+      </c>
+      <c r="D122">
+        <v>109.346653330423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>66</v>
       </c>
       <c r="B123" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>-5.7960699999999997E-2</v>
+      </c>
+      <c r="D123">
+        <v>109.346653330423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>68</v>
       </c>
       <c r="B124" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>-7.4033787999999996</v>
+      </c>
+      <c r="D124">
+        <v>109.245904735512</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>68</v>
       </c>
       <c r="B125" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>-7.4033787999999996</v>
+      </c>
+      <c r="D125">
+        <v>109.245904735512</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>77</v>
       </c>
       <c r="B126" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>-7.5594793999999998</v>
+      </c>
+      <c r="D126">
+        <v>110.856853464304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>81</v>
       </c>
       <c r="B127" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>-0.83624284999999998</v>
+      </c>
+      <c r="D127">
+        <v>119.894653544504</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>81</v>
       </c>
       <c r="B128" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>-0.83624284999999998</v>
+      </c>
+      <c r="D128">
+        <v>119.894653544504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>81</v>
       </c>
       <c r="B129" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>-0.83624284999999998</v>
+      </c>
+      <c r="D129">
+        <v>119.894653544504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>83</v>
       </c>
       <c r="B130" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>-4.0080562000000004</v>
+      </c>
+      <c r="D130">
+        <v>122.52189419266701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>83</v>
       </c>
       <c r="B131" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>-4.0080562000000004</v>
+      </c>
+      <c r="D131">
+        <v>122.52189419266701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>83</v>
       </c>
       <c r="B132" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>-4.0080562000000004</v>
+      </c>
+      <c r="D132">
+        <v>122.52189419266701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>83</v>
       </c>
       <c r="B133" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>-4.0080562000000004</v>
+      </c>
+      <c r="D133">
+        <v>122.52189419266701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>83</v>
       </c>
       <c r="B134" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>-4.0080562000000004</v>
+      </c>
+      <c r="D134">
+        <v>122.52189419266701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>85</v>
       </c>
       <c r="B135" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>-3.7586670500000001</v>
+      </c>
+      <c r="D135">
+        <v>102.271393182251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>85</v>
       </c>
       <c r="B136" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>-3.7586670500000001</v>
+      </c>
+      <c r="D136">
+        <v>102.271393182251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>87</v>
       </c>
       <c r="B137" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>-6.3406422500000001</v>
+      </c>
+      <c r="D137">
+        <v>106.759070913245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>87</v>
       </c>
       <c r="B138" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>-6.3406422500000001</v>
+      </c>
+      <c r="D138">
+        <v>106.759070913245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>92</v>
       </c>
       <c r="B139" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>-7.9616312499999999</v>
+      </c>
+      <c r="D139">
+        <v>112.617783801961</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>92</v>
       </c>
       <c r="B140" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>-7.9616312499999999</v>
+      </c>
+      <c r="D140">
+        <v>112.617783801961</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>94</v>
       </c>
       <c r="B141" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>-6.1947845499999996</v>
+      </c>
+      <c r="D141">
+        <v>106.878189714022</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>96</v>
       </c>
       <c r="B142" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>-7.7730131499999997</v>
+      </c>
+      <c r="D142">
+        <v>110.383763340711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>98</v>
       </c>
       <c r="B143" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D143">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>98</v>
       </c>
       <c r="B144" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>-7.3015347500000001</v>
+      </c>
+      <c r="D144">
+        <v>112.66931875495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>103</v>
       </c>
       <c r="B145" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>3.6090493000000001</v>
+      </c>
+      <c r="D145">
+        <v>98.717065565930596</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>109</v>
       </c>
       <c r="B146" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>-6.1904792999999998</v>
+      </c>
+      <c r="D146">
+        <v>106.12389254427499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>111</v>
       </c>
       <c r="B147" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>-7.1283206999999997</v>
+      </c>
+      <c r="D147">
+        <v>112.724128619547</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B148" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>0.76290109555500596</v>
+      </c>
+      <c r="D148">
+        <v>127.336235267012</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>115</v>
       </c>
       <c r="B149" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>-0.83534704999999998</v>
+      </c>
+      <c r="D149">
+        <v>134.068890285637</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>117</v>
       </c>
       <c r="B150" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>5.2323488500000002</v>
+      </c>
+      <c r="D150">
+        <v>96.984553239859594</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>121</v>
       </c>
       <c r="B151" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>-8.7052432999999994</v>
+      </c>
+      <c r="D151">
+        <v>115.21845991153801</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>123</v>
       </c>
       <c r="B152" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>-2.0706917176591402</v>
+      </c>
+      <c r="D152">
+        <v>106.07878125331401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>125</v>
       </c>
       <c r="B153" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>3.3040750499999998</v>
+      </c>
+      <c r="D153">
+        <v>117.64604355741599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>125</v>
       </c>
       <c r="B154" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>3.3040750499999998</v>
+      </c>
+      <c r="D154">
+        <v>117.64604355741599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>127</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>-8.53474735</v>
+      </c>
+      <c r="D155">
+        <v>140.414835361423</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>137</v>
       </c>
       <c r="B156" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>-7.4605762000000002</v>
+      </c>
+      <c r="D156">
+        <v>110.216876612078</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>139</v>
       </c>
       <c r="B157" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>-7.3489874999999998</v>
+      </c>
+      <c r="D157">
+        <v>108.2227707</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>139</v>
       </c>
       <c r="B158" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>-7.3489874999999998</v>
+      </c>
+      <c r="D158">
+        <v>108.2227707</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>141</v>
       </c>
       <c r="B159" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>4.1444979106742803</v>
+      </c>
+      <c r="D159">
+        <v>96.203425595625404</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>143</v>
       </c>
       <c r="B160" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>-7.333799</v>
+      </c>
+      <c r="D160">
+        <v>112.78889057329199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>153</v>
       </c>
       <c r="B161" t="s">
         <v>221</v>
+      </c>
+      <c r="C161">
+        <v>-6.89044875</v>
+      </c>
+      <c r="D161">
+        <v>107.610313557946</v>
       </c>
     </row>
   </sheetData>
